--- a/static/agent.xlsx
+++ b/static/agent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Address</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>Agent Code</t>
+  </si>
+  <si>
+    <t>sasa21</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +433,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -448,6 +456,9 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
